--- a/masterinput.xlsx
+++ b/masterinput.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZUL\priject py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\auto-input-BMKGSatu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3B36D-7487-469F-8713-238CAE2D9E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552BCD9-25AF-442B-8DD1-9700A92108D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68302FD9-38CD-42FA-91E9-66E8EDD65E83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68302FD9-38CD-42FA-91E9-66E8EDD65E83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="50">
   <si>
     <t>obs_onduty</t>
   </si>
@@ -243,41 +240,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Jam 00-05 UTC"/>
-      <sheetName val="Jam 06-11 UTC"/>
-      <sheetName val="Jam 12-17 UTC"/>
-      <sheetName val="Jam 18-23 UTC"/>
-      <sheetName val="Kopi disini"/>
-      <sheetName val="ME.48"/>
-      <sheetName val="me.45"/>
-      <sheetName val="Data"/>
-      <sheetName val="data_input"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="30">
-          <cell r="AV30">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436468F6-41AC-4D25-BB40-60E9D9F056E1}">
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,6 +682,9 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -728,22 +693,226 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
       <c r="C3" s="1">
         <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>140</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <v>1008.5</v>
+      </c>
+      <c r="L3">
+        <v>1008</v>
+      </c>
+      <c r="M3">
+        <v>23.4</v>
+      </c>
+      <c r="N3">
+        <v>22.3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>450</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3">
+        <v>3000</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>9000</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="1">
         <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>1009.2</v>
+      </c>
+      <c r="L4">
+        <v>1008.7</v>
+      </c>
+      <c r="M4">
+        <v>24.4</v>
+      </c>
+      <c r="N4">
+        <v>21.7</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>600</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH4">
+        <v>3000</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>9000</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
@@ -752,22 +921,226 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
       <c r="C6" s="1">
         <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>1008.5</v>
+      </c>
+      <c r="L6">
+        <v>1008</v>
+      </c>
+      <c r="M6">
+        <v>23.4</v>
+      </c>
+      <c r="N6">
+        <v>22.3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>450</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH6">
+        <v>3000</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>9000</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" s="1">
         <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>1009.2</v>
+      </c>
+      <c r="L7">
+        <v>1008.7</v>
+      </c>
+      <c r="M7">
+        <v>24.4</v>
+      </c>
+      <c r="N7">
+        <v>21.7</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>600</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7">
+        <v>3000</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>9000</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
@@ -776,22 +1149,226 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
       <c r="C9" s="1">
         <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>140</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>1008.5</v>
+      </c>
+      <c r="L9">
+        <v>1008</v>
+      </c>
+      <c r="M9">
+        <v>23.4</v>
+      </c>
+      <c r="N9">
+        <v>22.3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>450</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH9">
+        <v>3000</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>9000</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
       <c r="C10" s="1">
         <v>8</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>1009.2</v>
+      </c>
+      <c r="L10">
+        <v>1008.7</v>
+      </c>
+      <c r="M10">
+        <v>24.4</v>
+      </c>
+      <c r="N10">
+        <v>21.7</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>600</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH10">
+        <v>3000</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>9000</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
@@ -800,22 +1377,226 @@
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="1">
         <v>10</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>140</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>1008.5</v>
+      </c>
+      <c r="L12">
+        <v>1008</v>
+      </c>
+      <c r="M12">
+        <v>23.4</v>
+      </c>
+      <c r="N12">
+        <v>22.3</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>450</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH12">
+        <v>3000</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>9000</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
       <c r="C13" s="1">
         <v>11</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>1009.2</v>
+      </c>
+      <c r="L13">
+        <v>1008.7</v>
+      </c>
+      <c r="M13">
+        <v>24.4</v>
+      </c>
+      <c r="N13">
+        <v>21.7</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>600</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH13">
+        <v>3000</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>9000</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
@@ -824,75 +1605,687 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="1">
         <v>13</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>140</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>1008.5</v>
+      </c>
+      <c r="L15">
+        <v>1008</v>
+      </c>
+      <c r="M15">
+        <v>23.4</v>
+      </c>
+      <c r="N15">
+        <v>22.3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>450</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH15">
+        <v>3000</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>9000</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>150</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <v>1009.2</v>
+      </c>
+      <c r="L16">
+        <v>1008.7</v>
+      </c>
+      <c r="M16">
+        <v>24.4</v>
+      </c>
+      <c r="N16">
+        <v>21.7</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>600</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF16">
+        <v>2</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH16">
+        <v>3000</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>9000</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>140</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <v>1008.5</v>
+      </c>
+      <c r="L18">
+        <v>1008</v>
+      </c>
+      <c r="M18">
+        <v>23.4</v>
+      </c>
+      <c r="N18">
+        <v>22.3</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>450</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH18">
+        <v>3000</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>9000</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>1009.2</v>
+      </c>
+      <c r="L19">
+        <v>1008.7</v>
+      </c>
+      <c r="M19">
+        <v>24.4</v>
+      </c>
+      <c r="N19">
+        <v>21.7</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>46</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>600</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH19">
+        <v>3000</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>9000</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>140</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>1008.5</v>
+      </c>
+      <c r="L21">
+        <v>1008</v>
+      </c>
+      <c r="M21">
+        <v>23.4</v>
+      </c>
+      <c r="N21">
+        <v>22.3</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>450</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH21">
+        <v>3000</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>9000</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>150</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>1009.2</v>
+      </c>
+      <c r="L22">
+        <v>1008.7</v>
+      </c>
+      <c r="M22">
+        <v>24.4</v>
+      </c>
+      <c r="N22">
+        <v>21.7</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>46</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>600</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH22">
+        <v>3000</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>9000</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1004,12 +2397,8 @@
       <c r="AQ24">
         <v>0</v>
       </c>
-      <c r="AR24">
-        <f>'[1]Jam 18-23 UTC'!AV30</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>

--- a/masterinput.xlsx
+++ b/masterinput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\auto-input-BMKGSatu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552BCD9-25AF-442B-8DD1-9700A92108D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392AC6EF-9A3A-4C42-ADBA-FD4C62346EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68302FD9-38CD-42FA-91E9-66E8EDD65E83}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/masterinput.xlsx
+++ b/masterinput.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\auto-input-BMKGSatu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392AC6EF-9A3A-4C42-ADBA-FD4C62346EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B422823-70E6-423E-A8BA-64EBE5815FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68302FD9-38CD-42FA-91E9-66E8EDD65E83}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="input_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -542,7 +542,7 @@
   <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/masterinput.xlsx
+++ b/masterinput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\auto-input-BMKGSatu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533B212C-C9F3-4C23-8EEE-829CE8436380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654013B5-2D06-4A03-AC75-71F635CF8B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68302FD9-38CD-42FA-91E9-66E8EDD65E83}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="55">
   <si>
     <t>obs_onduty</t>
   </si>
@@ -189,15 +189,25 @@
     <t>CLD DECR</t>
   </si>
   <si>
-    <t/>
+    <t>ADW</t>
+  </si>
+  <si>
+    <t>CLD INCR</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>DWI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -228,9 +238,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +559,7 @@
   <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,8 +699,44 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
       <c r="C2" s="1">
         <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1009.2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1008.7</v>
+      </c>
+      <c r="M2" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>22.6</v>
       </c>
       <c r="P2">
         <v>23.4</v>
@@ -697,6 +744,69 @@
       <c r="R2">
         <v>0</v>
       </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>600</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2">
+        <v>9000</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2">
+        <v>9000</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>46</v>
+      </c>
       <c r="AN2">
         <v>8.6</v>
       </c>
@@ -705,32 +815,341 @@
       </c>
       <c r="AP2">
         <v>16.3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
       <c r="C3" s="1">
         <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>140</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1009.3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1008.8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="N3" s="2">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>600</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+      <c r="AL3">
+        <v>9000</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" s="1">
         <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1008.9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1008.4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>600</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>9000</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>320</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1008.4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1007.9</v>
+      </c>
+      <c r="M5" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>25.4</v>
+      </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>600</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>9000</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ5">
         <v>0</v>
       </c>
     </row>
@@ -738,26 +1157,332 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
       <c r="C6" s="1">
         <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>320</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1007.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1007.1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="N6" s="2">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>600</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>9000</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
       <c r="C7" s="1">
         <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>330</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1007</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1006.5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>600</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH7">
+        <v>9000</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>9000</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1006.2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1005.7</v>
+      </c>
+      <c r="M8" s="2">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2">
+        <v>26</v>
+      </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>600</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8">
+        <v>9000</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ8">
         <v>0</v>
       </c>
     </row>
@@ -765,26 +1490,332 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
       <c r="C9" s="1">
         <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1005.7</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1005.2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>600</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>9000</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="1">
         <v>8</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>320</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1005.4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1004.9</v>
+      </c>
+      <c r="M10" s="2">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>600</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <v>9000</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>320</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1005.6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="N11" s="2">
+        <v>25.2</v>
+      </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>600</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11">
+        <v>9000</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK11">
+        <v>4</v>
+      </c>
+      <c r="AL11">
+        <v>9000</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ11">
         <v>0</v>
       </c>
     </row>
@@ -792,16 +1823,217 @@
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" s="1">
         <v>10</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>310</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1006.4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1006</v>
+      </c>
+      <c r="M12" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="N12" s="2">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>600</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB12">
+        <v>9000</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK12">
+        <v>4</v>
+      </c>
+      <c r="AL12">
+        <v>9000</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="1">
         <v>11</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1007.4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1006.9</v>
+      </c>
+      <c r="M13" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="N13" s="2">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>600</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB13">
+        <v>9000</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK13">
+        <v>4</v>
+      </c>
+      <c r="AL13">
+        <v>9000</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>46</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -838,16 +2070,16 @@
       <c r="J14" t="s">
         <v>44</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>1008.4</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>1007.9</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>27.4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>24.7</v>
       </c>
       <c r="O14">
@@ -899,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -957,16 +2189,16 @@
       <c r="J15" t="s">
         <v>44</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>1008.9</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>1008.5</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>27</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>24.4</v>
       </c>
       <c r="Q15">
@@ -1012,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -1070,16 +2302,16 @@
       <c r="J16" t="s">
         <v>44</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>1009.5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>1009.1</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>26.3</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>23.5</v>
       </c>
       <c r="Q16">
@@ -1125,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -1166,61 +2398,61 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1009.5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1009</v>
+      </c>
+      <c r="M17" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="N17" s="2">
+        <v>23.3</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="S17">
-        <v>0</v>
+      <c r="S17" t="s">
+        <v>45</v>
       </c>
       <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>45</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
+      <c r="Y17" t="s">
+        <v>46</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1234,14 +2466,14 @@
       <c r="AC17">
         <v>0</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
+      <c r="AD17" t="s">
+        <v>46</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -1249,20 +2481,20 @@
       <c r="AH17">
         <v>0</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
+      <c r="AI17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>47</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>46</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -1282,58 +2514,58 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1008.5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>23</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S18" t="s">
+        <v>45</v>
       </c>
       <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
+      <c r="Y18" t="s">
+        <v>46</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -1347,14 +2579,14 @@
       <c r="AC18">
         <v>0</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
+      <c r="AD18" t="s">
+        <v>46</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -1362,20 +2594,20 @@
       <c r="AH18">
         <v>0</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
+      <c r="AI18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>47</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>46</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -1395,58 +2627,58 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1008.6</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1008.2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="N19" s="2">
+        <v>22.8</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
+        <v>45</v>
       </c>
       <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>45</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
+      <c r="Y19" t="s">
+        <v>46</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -1460,14 +2692,14 @@
       <c r="AC19">
         <v>0</v>
       </c>
-      <c r="AD19">
-        <v>0</v>
+      <c r="AD19" t="s">
+        <v>46</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -1475,20 +2707,20 @@
       <c r="AH19">
         <v>0</v>
       </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
+      <c r="AI19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>47</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>46</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -1508,37 +2740,37 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1008.3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1007.8</v>
+      </c>
+      <c r="M20" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="N20" s="2">
+        <v>21.4</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1549,11 +2781,11 @@
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20">
-        <v>0</v>
+      <c r="U20" t="s">
+        <v>47</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -1561,8 +2793,8 @@
       <c r="X20">
         <v>0</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
+      <c r="Y20" t="s">
+        <v>49</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -1576,8 +2808,8 @@
       <c r="AC20">
         <v>0</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
+      <c r="AD20" t="s">
+        <v>49</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -1591,20 +2823,20 @@
       <c r="AH20">
         <v>0</v>
       </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
+      <c r="AI20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>47</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>46</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -1624,37 +2856,37 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1008.2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1007.8</v>
+      </c>
+      <c r="M21" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="N21" s="2">
+        <v>21.2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -1662,11 +2894,11 @@
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>0</v>
+      <c r="U21" t="s">
+        <v>47</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -1674,8 +2906,8 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
+      <c r="Y21" t="s">
+        <v>49</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -1689,8 +2921,8 @@
       <c r="AC21">
         <v>0</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
+      <c r="AD21" t="s">
+        <v>49</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -1704,20 +2936,20 @@
       <c r="AH21">
         <v>0</v>
       </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
+      <c r="AI21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>47</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>46</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -1737,37 +2969,37 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1007.9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1007.4</v>
+      </c>
+      <c r="M22" s="2">
+        <v>24</v>
+      </c>
+      <c r="N22" s="2">
+        <v>21</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -1775,11 +3007,11 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
+      <c r="U22" t="s">
+        <v>47</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -1787,8 +3019,8 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
+      <c r="Y22" t="s">
+        <v>49</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -1802,8 +3034,8 @@
       <c r="AC22">
         <v>0</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
+      <c r="AD22" t="s">
+        <v>49</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -1817,20 +3049,20 @@
       <c r="AH22">
         <v>0</v>
       </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
+      <c r="AI22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>47</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>46</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -1850,37 +3082,37 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1007.8</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1007.4</v>
+      </c>
+      <c r="M23" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="N23" s="2">
+        <v>20.8</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -1891,11 +3123,11 @@
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23">
-        <v>0</v>
+      <c r="U23" t="s">
+        <v>47</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -1903,8 +3135,8 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
+      <c r="Y23" t="s">
+        <v>49</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -1916,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>3</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>49</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -1933,20 +3165,20 @@
       <c r="AH23">
         <v>0</v>
       </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
+      <c r="AI23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>47</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>46</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -1966,37 +3198,37 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1008.8</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1008.3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="N24" s="2">
+        <v>21.2</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2004,11 +3236,11 @@
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24">
-        <v>0</v>
+      <c r="U24" t="s">
+        <v>53</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -2016,8 +3248,8 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
+      <c r="Y24" t="s">
+        <v>49</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2031,35 +3263,35 @@
       <c r="AC24">
         <v>0</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
+      <c r="AD24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>53</v>
       </c>
       <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>53</v>
       </c>
       <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>47</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>46</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -2079,37 +3311,37 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1009.4</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1009</v>
+      </c>
+      <c r="M25" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="N25" s="2">
+        <v>21.8</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2117,11 +3349,11 @@
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25">
-        <v>0</v>
+      <c r="U25" t="s">
+        <v>53</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -2129,8 +3361,8 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
+      <c r="Y25" t="s">
+        <v>49</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2144,35 +3376,35 @@
       <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
+      <c r="AD25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>53</v>
       </c>
       <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>53</v>
       </c>
       <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>47</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>46</v>
       </c>
       <c r="AQ25">
         <v>0</v>
